--- a/db/script/dictionary.xlsx
+++ b/db/script/dictionary.xlsx
@@ -1,20 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aa185298\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18150" windowHeight="4770"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1396" uniqueCount="1024">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1402" uniqueCount="1028">
   <si>
     <t>Code</t>
   </si>
@@ -3096,6 +3092,18 @@
   </si>
   <si>
     <t>persontype4</t>
+  </si>
+  <si>
+    <t>underMortgage</t>
+  </si>
+  <si>
+    <t>Mortgage</t>
+  </si>
+  <si>
+    <t>mortgageinProcess</t>
+  </si>
+  <si>
+    <t>Mortgage in Process</t>
   </si>
 </sst>
 </file>
@@ -3424,10 +3432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:G384"/>
+  <dimension ref="C2:G386"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A370" workbookViewId="0">
-      <selection activeCell="G381" sqref="G381:G384"/>
+    <sheetView tabSelected="1" topLeftCell="D376" workbookViewId="0">
+      <selection activeCell="G385" sqref="G385:G386"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8554,7 +8562,7 @@
         <v>insert into propertiesapp.dictionary (`code`,`label`,`category`,`description`) values('outOfOrderProperty','Out of Order','propertyStatus','');</v>
       </c>
     </row>
-    <row r="294" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="3:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C294" t="s">
         <v>997</v>
       </c>
@@ -9015,7 +9023,7 @@
         <v>847</v>
       </c>
       <c r="G324" t="str">
-        <f t="shared" ref="G324:G384" si="5">CONCATENATE("insert into propertiesapp.dictionary (`code`,`label`,`category`,`description`) values('",C324,"','",D324,"','",E324,"','",F324,"');")</f>
+        <f t="shared" ref="G324:G386" si="5">CONCATENATE("insert into propertiesapp.dictionary (`code`,`label`,`category`,`description`) values('",C324,"','",D324,"','",E324,"','",F324,"');")</f>
         <v>insert into propertiesapp.dictionary (`code`,`label`,`category`,`description`) values('salut24','Justice','salutation','');</v>
       </c>
     </row>
@@ -9917,6 +9925,36 @@
       <c r="G384" t="str">
         <f t="shared" si="5"/>
         <v>insert into propertiesapp.dictionary (`code`,`label`,`category`,`description`) values('persontype4','Staff','persontype','');</v>
+      </c>
+    </row>
+    <row r="385" spans="3:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C385" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D385" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E385" t="s">
+        <v>1000</v>
+      </c>
+      <c r="G385" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into propertiesapp.dictionary (`code`,`label`,`category`,`description`) values('underMortgage','Mortgage','propertyStatus','');</v>
+      </c>
+    </row>
+    <row r="386" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C386" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D386" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E386" t="s">
+        <v>1000</v>
+      </c>
+      <c r="G386" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into propertiesapp.dictionary (`code`,`label`,`category`,`description`) values('mortgageinProcess','Mortgage in Process','propertyStatus','');</v>
       </c>
     </row>
   </sheetData>
